--- a/src/Doc/Allocation Announcement1.xlsx
+++ b/src/Doc/Allocation Announcement1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\OneDrive\Documents\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">ALLOCATION ANNOUNCEMENT </t>
   </si>
@@ -80,30 +80,12 @@
   </si>
   <si>
     <t>Manager of Human Resources Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIRIN WAHYUNI- </t>
-  </si>
-  <si>
-    <t>Sekertaris</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-Apr-1999- </t>
-  </si>
-  <si>
-    <t>12-Jul-2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -578,11 +560,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="11.453125"/>
-    <col min="4" max="4" customWidth="true" width="11.1796875"/>
-    <col min="8" max="8" customWidth="true" width="5.6328125"/>
-    <col min="9" max="9" customWidth="true" width="6.6328125"/>
-    <col min="10" max="10" customWidth="true" width="7.36328125"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="6.6328125" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -714,27 +696,15 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="G10" s="13"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
